--- a/public/files/usuarios_plantilla.xlsx
+++ b/public/files/usuarios_plantilla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lalo Barriguett\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC2BD4F-61AA-4E85-BB12-23202BB35EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32244F00-3E0D-4F8A-BA12-16C8123A8315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1141" yWindow="1141" windowWidth="19562" windowHeight="10352" xr2:uid="{B44C7E42-D13D-475A-BCB5-D2C10D57B628}"/>
+    <workbookView xWindow="1861" yWindow="1861" windowWidth="19562" windowHeight="10352" xr2:uid="{B44C7E42-D13D-475A-BCB5-D2C10D57B628}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>user_id</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>ebarriguett2@gmail.com</t>
-  </si>
-  <si>
-    <t>admin_id</t>
   </si>
 </sst>
 </file>
@@ -150,22 +147,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{86CF8FA0-F488-4AAC-A015-4DD0197FA564}" name="Tabla1" displayName="Tabla1" ref="A1:F6" totalsRowShown="0">
-  <autoFilter ref="A1:F6" xr:uid="{86CF8FA0-F488-4AAC-A015-4DD0197FA564}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{86CF8FA0-F488-4AAC-A015-4DD0197FA564}" name="Tabla1" displayName="Tabla1" ref="A1:E6" totalsRowShown="0">
+  <autoFilter ref="A1:E6" xr:uid="{86CF8FA0-F488-4AAC-A015-4DD0197FA564}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
     <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="6">
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{48F8BD37-466A-4E52-8B4F-4FA9C3478F29}" name="user_id"/>
     <tableColumn id="2" xr3:uid="{6AF774D8-0174-4F77-9CB4-E201111914B4}" name="name"/>
     <tableColumn id="3" xr3:uid="{8388A6EF-5A4F-4D24-8F20-C303767B0C8A}" name="email" dataCellStyle="Hipervínculo"/>
     <tableColumn id="4" xr3:uid="{F0E35F87-D244-4677-9AFF-DEA156907034}" name="role"/>
     <tableColumn id="5" xr3:uid="{11DC2B2A-0A46-473F-A7A5-B9020975AF6E}" name="password"/>
-    <tableColumn id="7" xr3:uid="{6EE84994-4E17-457C-96B4-694FB12C8256}" name="admin_id"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -488,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066DBA28-D050-4777-81BD-A048E122FABC}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -500,7 +495,7 @@
     <col min="3" max="3" width="29.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,11 +511,8 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>201858942</v>
       </c>
@@ -536,11 +528,8 @@
       <c r="E2">
         <v>201858942</v>
       </c>
-      <c r="F2">
-        <v>201858940</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>201858944</v>
       </c>
@@ -556,11 +545,8 @@
       <c r="E3">
         <v>201858944</v>
       </c>
-      <c r="F3">
-        <v>201858940</v>
-      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>201858946</v>
       </c>
@@ -576,11 +562,8 @@
       <c r="E4">
         <v>201858946</v>
       </c>
-      <c r="F4">
-        <v>201858940</v>
-      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>201858948</v>
       </c>
@@ -596,11 +579,8 @@
       <c r="E5">
         <v>201858948</v>
       </c>
-      <c r="F5">
-        <v>201858940</v>
-      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>201858950</v>
       </c>
@@ -615,9 +595,6 @@
       </c>
       <c r="E6">
         <v>201858950</v>
-      </c>
-      <c r="F6">
-        <v>201858940</v>
       </c>
     </row>
   </sheetData>
